--- a/Scrum stuff/Aanwezigheidslijst.xlsx
+++ b/Scrum stuff/Aanwezigheidslijst.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Aanwezigheidslijst" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>Aanwezigheid Project 4</t>
   </si>
@@ -763,7 +763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,9 @@
       <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -1150,7 +1152,9 @@
       <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -1200,7 +1204,9 @@
       <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -1224,7 +1230,9 @@
       <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>

--- a/Scrum stuff/Aanwezigheidslijst.xlsx
+++ b/Scrum stuff/Aanwezigheidslijst.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>Aanwezigheid Project 4</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>(-- Afwezig)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -481,6 +487,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -764,7 +776,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +870,300 @@
       <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="15">
+        <v>42541</v>
+      </c>
+      <c r="D4" s="16">
+        <v>42542</v>
+      </c>
+      <c r="E4" s="16">
+        <v>42543</v>
+      </c>
+      <c r="F4" s="16">
+        <v>42544</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42545</v>
+      </c>
+      <c r="H4" s="18">
+        <v>42548</v>
+      </c>
+      <c r="I4" s="16">
+        <v>42549</v>
+      </c>
+      <c r="J4" s="16">
+        <v>42550</v>
+      </c>
+      <c r="K4" s="16">
+        <v>42551</v>
+      </c>
+      <c r="L4" s="17">
+        <v>42552</v>
+      </c>
+      <c r="M4" s="18">
+        <v>42555</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42556</v>
+      </c>
+      <c r="O4" s="16">
+        <v>42557</v>
+      </c>
+      <c r="P4" s="16">
+        <v>42558</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -876,15 +1181,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -902,15 +1209,17 @@
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -928,15 +1237,17 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -957,13 +1268,17 @@
         <v>17</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -986,277 +1301,6 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="15">
-        <v>42541</v>
-      </c>
-      <c r="D4" s="16">
-        <v>42542</v>
-      </c>
-      <c r="E4" s="16">
-        <v>42543</v>
-      </c>
-      <c r="F4" s="16">
-        <v>42544</v>
-      </c>
-      <c r="G4" s="17">
-        <v>42545</v>
-      </c>
-      <c r="H4" s="18">
-        <v>42548</v>
-      </c>
-      <c r="I4" s="16">
-        <v>42549</v>
-      </c>
-      <c r="J4" s="16">
-        <v>42550</v>
-      </c>
-      <c r="K4" s="16">
-        <v>42551</v>
-      </c>
-      <c r="L4" s="17">
-        <v>42552</v>
-      </c>
-      <c r="M4" s="18">
-        <v>42555</v>
-      </c>
-      <c r="N4" s="16">
-        <v>42556</v>
-      </c>
-      <c r="O4" s="16">
-        <v>42557</v>
-      </c>
-      <c r="P4" s="16">
-        <v>42558</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>42559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1"/>

--- a/Scrum stuff/Aanwezigheidslijst.xlsx
+++ b/Scrum stuff/Aanwezigheidslijst.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>Aanwezigheid Project 4</t>
   </si>
@@ -776,7 +776,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,8 +876,12 @@
       <c r="G5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
@@ -906,8 +910,12 @@
       <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
@@ -936,8 +944,12 @@
       <c r="G7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
@@ -966,8 +978,12 @@
       <c r="G8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -996,8 +1012,12 @@
       <c r="G9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -1066,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,8 +1184,12 @@
       <c r="F5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>17</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -1192,8 +1216,12 @@
       <c r="F6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -1220,8 +1248,12 @@
       <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1248,8 +1280,12 @@
       <c r="F8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -1279,7 +1315,9 @@
       <c r="G9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
